--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-27T14:12:07+00:00</t>
+    <t>2022-03-29T12:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T12:06:51+00:00</t>
+    <t>2022-03-29T12:11:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T12:11:46+00:00</t>
+    <t>2022-03-29T12:22:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from HCParty" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from cd-hcparty" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.hl7belgium.org/fhir/ValueSet/be-vs-dispenser-types</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/medication/ValueSet/be-vs-dispenser-types</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T12:22:58+00:00</t>
+    <t>2022-03-29T14:37:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Belgium</t>
+    <t>HL7 Belgium/eHealth Platform</t>
   </si>
   <si>
     <t>Contact</t>
@@ -126,7 +126,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/cd-hcparty</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/core/CodeSystem/cd-hcparty</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T14:37:32+00:00</t>
+    <t>2022-03-29T14:38:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T14:38:19+00:00</t>
+    <t>2022-03-29T15:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T15:00:59+00:00</t>
+    <t>2022-03-29T15:01:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T15:01:20+00:00</t>
+    <t>2022-03-29T15:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T15:24:43+00:00</t>
+    <t>2022-03-29T15:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T15:29:46+00:00</t>
+    <t>2022-03-29T15:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from cd-hcparty" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from HCParty" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T15:40:06+00:00</t>
+    <t>2022-03-29T17:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Belgium/eHealth Platform</t>
+    <t>eHealth Platform</t>
   </si>
   <si>
     <t>Contact</t>
@@ -260,7 +260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -350,37 +350,45 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B16" t="s" s="2">
         <v>26</v>
       </c>
     </row>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T17:35:12+00:00</t>
+    <t>2022-04-22T15:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:41:49+00:00</t>
+    <t>2022-04-22T18:00:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T18:00:44+00:00</t>
+    <t>2022-05-06T09:14:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-06T09:14:12+00:00</t>
+    <t>2022-05-06T09:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-06T09:22:59+00:00</t>
+    <t>2022-05-06T11:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-06T11:58:18+00:00</t>
+    <t>2022-05-06T12:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-06T12:00:57+00:00</t>
+    <t>2022-05-06T12:01:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-06T12:01:36+00:00</t>
+    <t>2022-05-06T14:52:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-06T14:52:18+00:00</t>
+    <t>2022-06-17T12:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-17T12:47:22+00:00</t>
+    <t>2022-06-17T12:53:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-17T12:53:33+00:00</t>
+    <t>2022-10-17T07:49:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-17T07:49:41+00:00</t>
+    <t>2022-10-17T09:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-17T09:05:20+00:00</t>
+    <t>2022-10-17T09:05:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-17T09:05:37+00:00</t>
+    <t>2023-04-13T07:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-13T07:45:02+00:00</t>
+    <t>2023-10-03T16:24:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -248,10 +248,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T16:24:53+00:00</t>
+    <t>2023-10-07T20:10:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-07T20:10:57+00:00</t>
+    <t>2023-10-29T13:58:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T13:58:21+00:00</t>
+    <t>2023-10-29T17:13:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Belgium</t>
+    <t>eHealth Platform</t>
   </si>
   <si>
     <t>Contact</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T17:13:12+00:00</t>
+    <t>2023-10-29T17:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T17:28:29+00:00</t>
+    <t>2023-10-29T18:04:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T18:04:13+00:00</t>
+    <t>2023-10-29T19:43:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T19:43:50+00:00</t>
+    <t>2023-11-02T09:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T09:56:54+00:00</t>
+    <t>2023-12-06T03:28:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Belgium</t>
+    <t>eHealth Platform</t>
   </si>
   <si>
     <t>Contact</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -54,16 +54,19 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-06T03:28:29+00:00</t>
+    <t>2024-01-02T17:12:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>
@@ -322,74 +325,76 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -411,68 +416,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-02T17:12:06+00:00</t>
+    <t>2024-01-09T10:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-09T10:02:55+00:00</t>
+    <t>2024-01-09T13:30:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-09T13:30:16+00:00</t>
+    <t>2024-03-21T20:28:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-21T20:28:49+00:00</t>
+    <t>2024-03-24T09:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-24T09:50:04+00:00</t>
+    <t>2024-03-24T15:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-24T15:17:23+00:00</t>
+    <t>2024-03-25T22:02:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:02:55+00:00</t>
+    <t>2024-03-25T22:27:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:27:20+00:00</t>
+    <t>2024-03-26T10:34:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T10:34:23+00:00</t>
+    <t>2024-03-26T10:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -54,19 +54,16 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T10:57:44+00:00</t>
+    <t>2024-03-28T20:52:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Belgium</t>
+    <t>eHealth Platform</t>
   </si>
   <si>
     <t>Contact</t>
@@ -325,76 +322,74 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>13</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>14</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>16</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -416,68 +411,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from HCParty" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from BeCdHcParty" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -54,16 +54,19 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T20:52:03+00:00</t>
+    <t>2024-03-29T21:30:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>
@@ -322,74 +325,76 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -411,68 +416,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,19 +54,16 @@
     <t>Experimental</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T21:30:10+00:00</t>
+    <t>2024-03-30T10:20:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Belgium</t>
+    <t>eHealth Platform</t>
   </si>
   <si>
     <t>Contact</t>
@@ -325,76 +322,74 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="2">
-        <v>13</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>14</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>16</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -416,68 +411,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -54,10 +54,13 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T10:20:56+00:00</t>
+    <t>2024-03-30T10:53:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -322,74 +325,76 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -411,68 +416,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T10:53:39+00:00</t>
+    <t>2024-03-30T10:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T10:56:30+00:00</t>
+    <t>2024-03-30T13:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T13:34:04+00:00</t>
+    <t>2024-03-30T13:49:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T13:49:38+00:00</t>
+    <t>2024-03-30T14:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T14:41:48+00:00</t>
+    <t>2024-03-30T19:04:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-30T19:04:54+00:00</t>
+    <t>2024-04-03T13:08:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-03T13:08:50+00:00</t>
+    <t>2024-04-07T08:57:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Belgium (https://www.hl7belgium.org, hl7belgium@hl7belgium.org)</t>
+  </si>
+  <si>
+    <t>Message Structure eHealth (message-structure@ehealth.fgov.be(WORK))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -358,43 +361,43 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -416,68 +419,68 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T08:57:13+00:00</t>
+    <t>2024-04-07T09:48:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T09:48:24+00:00</t>
+    <t>2024-04-07T12:07:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Belgium</t>
+    <t>eHealth Platform</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Belgium (https://www.hl7belgium.org, hl7belgium@hl7belgium.org)</t>
+    <t>eHealth Platform (https://www.ehealth.fgov.be/standards/fhir, message-structure@ehealth.fgov.be)</t>
   </si>
   <si>
     <t>Message Structure eHealth (message-structure@ehealth.fgov.be(WORK))</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:07:30+00:00</t>
+    <t>2024-04-07T12:14:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:14:10+00:00</t>
+    <t>2024-04-07T12:19:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T12:19:24+00:00</t>
+    <t>2024-04-07T13:15:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>eHealth Platform</t>
+    <t>HL7 Belgium</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>eHealth Platform (https://www.ehealth.fgov.be/standards/fhir, message-structure@ehealth.fgov.be)</t>
+    <t>HL7 Belgium (https://www.hl7belgium.org, hl7belgium@hl7belgium.org)</t>
   </si>
   <si>
     <t>Message Structure eHealth (message-structure@ehealth.fgov.be(WORK))</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T13:15:37+00:00</t>
+    <t>2024-04-07T13:19:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-07T13:19:46+00:00</t>
+    <t>2024-04-10T07:41:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T07:41:38+00:00</t>
+    <t>2024-04-14T06:15:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-14T06:15:19+00:00</t>
+    <t>2024-05-06T21:25:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T21:25:42+00:00</t>
+    <t>2024-05-07T09:01:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-07T09:01:04+00:00</t>
+    <t>2024-05-07T09:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vs-dispenser-types.xlsx
+++ b/ValueSet-be-vs-dispenser-types.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-07T09:20:42+00:00</t>
+    <t>2024-05-07T13:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
